--- a/GFG Problem Of the Day [ INDEX ].xlsx
+++ b/GFG Problem Of the Day [ INDEX ].xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\GFG Problem Of The Day\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A1FB64-6DC7-436C-B0D0-E430787BCA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0E03A7-8D0C-4A39-B871-5035ED61C3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
   <si>
     <t>Problem Name</t>
   </si>
@@ -90,9 +90,6 @@
     <t>SD</t>
   </si>
   <si>
-    <t>[FEBRUARY 2022]</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Start Date  --&gt;  10th February 2022</t>
   </si>
   <si>
@@ -124,13 +121,91 @@
   </si>
   <si>
     <t>Rearrange Geek and His Classmates</t>
+  </si>
+  <si>
+    <t>Find the number of Islands</t>
+  </si>
+  <si>
+    <t>Graph,DFS</t>
+  </si>
+  <si>
+    <t>Trees,DFS</t>
+  </si>
+  <si>
+    <t>[June 2022]</t>
+  </si>
+  <si>
+    <t>[July 2022]</t>
+  </si>
+  <si>
+    <t>[August 2022]</t>
+  </si>
+  <si>
+    <t>[February 2022]</t>
+  </si>
+  <si>
+    <t>Smallest Absolute Difference</t>
+  </si>
+  <si>
+    <t>Binary Search , DP</t>
+  </si>
+  <si>
+    <t>Optimal Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Spidey Sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFS/DFS , Graph , Matrix </t>
+  </si>
+  <si>
+    <t>Sorting, LinkedList</t>
+  </si>
+  <si>
+    <t>Insertion Sort For Singly LinkedList</t>
+  </si>
+  <si>
+    <t>Return Two Prime Numbers</t>
+  </si>
+  <si>
+    <t>Robots</t>
+  </si>
+  <si>
+    <t>Strings ,Implementation</t>
+  </si>
+  <si>
+    <t>Escape The Forbidden Forest</t>
+  </si>
+  <si>
+    <t>Strings ,LCS, DP</t>
+  </si>
+  <si>
+    <t>Smallest Window Containing 0's,1's,2's</t>
+  </si>
+  <si>
+    <t>Sliding Window, Two Pointer, String</t>
+  </si>
+  <si>
+    <t>Hit Most Balloons</t>
+  </si>
+  <si>
+    <t>Mathematical,Geometry,HashMap</t>
+  </si>
+  <si>
+    <t>VARIATION</t>
+  </si>
+  <si>
+    <t>LeetCode 149 (Max Point On Same Line)</t>
+  </si>
+  <si>
+    <t>LeetCode 968 (Binary Tree Cameras)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,13 +262,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -223,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,9 +334,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -539,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:N125"/>
+  <dimension ref="A3:N224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,15 +630,16 @@
     <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="53.21875" customWidth="1"/>
     <col min="6" max="6" width="26.5546875" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="31.21875" customWidth="1"/>
     <col min="9" max="9" width="8.5546875" customWidth="1"/>
     <col min="10" max="10" width="23.5546875" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.4">
@@ -579,9 +660,11 @@
         <v>3</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
@@ -594,7 +677,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -617,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -640,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -663,7 +746,7 @@
         <v>6</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -686,7 +769,7 @@
         <v>18</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -743,13 +826,13 @@
         <v>44608</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>6</v>
@@ -758,7 +841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>8</v>
       </c>
@@ -766,22 +849,25 @@
         <v>44609</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N17" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9</v>
       </c>
@@ -789,7 +875,7 @@
         <v>44610</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>8</v>
@@ -804,92 +890,245 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19" s="5">
         <v>44611</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11</v>
       </c>
       <c r="B20" s="5">
         <v>44612</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
       <c r="B21" s="5">
         <v>44613</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
       <c r="B22" s="5">
         <v>44614</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
       <c r="B23" s="5">
         <v>44615</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15</v>
       </c>
       <c r="B24" s="5">
         <v>44616</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>16</v>
       </c>
       <c r="B25" s="5">
         <v>44617</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>17</v>
       </c>
       <c r="B26" s="5">
         <v>44618</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>18</v>
       </c>
       <c r="B27" s="5">
         <v>44619</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>19</v>
       </c>
       <c r="B28" s="5">
         <v>44620</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20</v>
       </c>
@@ -897,7 +1136,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>21</v>
       </c>
@@ -1139,7 +1378,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B63" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1147,7 +1386,7 @@
         <v>51</v>
       </c>
       <c r="B64" s="2">
-        <v>44621</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1155,7 +1394,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="2">
-        <v>44622</v>
+        <v>44653</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1163,7 +1402,7 @@
         <v>53</v>
       </c>
       <c r="B66" s="2">
-        <v>44623</v>
+        <v>44654</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1171,7 +1410,7 @@
         <v>54</v>
       </c>
       <c r="B67" s="2">
-        <v>44624</v>
+        <v>44655</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1179,7 +1418,7 @@
         <v>55</v>
       </c>
       <c r="B68" s="2">
-        <v>44625</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1187,7 +1426,7 @@
         <v>56</v>
       </c>
       <c r="B69" s="2">
-        <v>44626</v>
+        <v>44657</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1195,7 +1434,7 @@
         <v>57</v>
       </c>
       <c r="B70" s="2">
-        <v>44627</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1203,7 +1442,7 @@
         <v>58</v>
       </c>
       <c r="B71" s="2">
-        <v>44628</v>
+        <v>44659</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1211,7 +1450,7 @@
         <v>59</v>
       </c>
       <c r="B72" s="2">
-        <v>44629</v>
+        <v>44660</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1219,7 +1458,7 @@
         <v>60</v>
       </c>
       <c r="B73" s="2">
-        <v>44630</v>
+        <v>44661</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1227,7 +1466,7 @@
         <v>61</v>
       </c>
       <c r="B74" s="2">
-        <v>44631</v>
+        <v>44662</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1235,7 +1474,7 @@
         <v>62</v>
       </c>
       <c r="B75" s="2">
-        <v>44632</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1243,7 +1482,7 @@
         <v>63</v>
       </c>
       <c r="B76" s="2">
-        <v>44633</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1251,7 +1490,7 @@
         <v>64</v>
       </c>
       <c r="B77" s="2">
-        <v>44634</v>
+        <v>44665</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1259,7 +1498,7 @@
         <v>65</v>
       </c>
       <c r="B78" s="2">
-        <v>44635</v>
+        <v>44666</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1267,7 +1506,7 @@
         <v>66</v>
       </c>
       <c r="B79" s="2">
-        <v>44636</v>
+        <v>44667</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1275,7 +1514,7 @@
         <v>67</v>
       </c>
       <c r="B80" s="2">
-        <v>44637</v>
+        <v>44668</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1283,7 +1522,7 @@
         <v>68</v>
       </c>
       <c r="B81" s="2">
-        <v>44638</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1291,7 +1530,7 @@
         <v>69</v>
       </c>
       <c r="B82" s="2">
-        <v>44639</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1299,7 +1538,7 @@
         <v>70</v>
       </c>
       <c r="B83" s="2">
-        <v>44640</v>
+        <v>44671</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1307,7 +1546,7 @@
         <v>71</v>
       </c>
       <c r="B84" s="2">
-        <v>44641</v>
+        <v>44672</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1315,7 +1554,7 @@
         <v>72</v>
       </c>
       <c r="B85" s="2">
-        <v>44642</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1323,7 +1562,7 @@
         <v>73</v>
       </c>
       <c r="B86" s="2">
-        <v>44643</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1331,7 +1570,7 @@
         <v>74</v>
       </c>
       <c r="B87" s="2">
-        <v>44644</v>
+        <v>44675</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1339,7 +1578,7 @@
         <v>75</v>
       </c>
       <c r="B88" s="2">
-        <v>44645</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1347,7 +1586,7 @@
         <v>76</v>
       </c>
       <c r="B89" s="2">
-        <v>44646</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1355,7 +1594,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="2">
-        <v>44647</v>
+        <v>44678</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1363,7 +1602,7 @@
         <v>78</v>
       </c>
       <c r="B91" s="2">
-        <v>44648</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1371,7 +1610,7 @@
         <v>79</v>
       </c>
       <c r="B92" s="2">
-        <v>44649</v>
+        <v>44680</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1379,12 +1618,12 @@
         <v>80</v>
       </c>
       <c r="B93" s="2">
-        <v>44650</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B95" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1392,7 +1631,7 @@
         <v>81</v>
       </c>
       <c r="B96" s="2">
-        <v>44621</v>
+        <v>44682</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1400,7 +1639,7 @@
         <v>82</v>
       </c>
       <c r="B97" s="2">
-        <v>44622</v>
+        <v>44683</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1408,7 +1647,7 @@
         <v>83</v>
       </c>
       <c r="B98" s="2">
-        <v>44623</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1416,7 +1655,7 @@
         <v>84</v>
       </c>
       <c r="B99" s="2">
-        <v>44624</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1424,7 +1663,7 @@
         <v>85</v>
       </c>
       <c r="B100" s="2">
-        <v>44625</v>
+        <v>44686</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1432,7 +1671,7 @@
         <v>86</v>
       </c>
       <c r="B101" s="2">
-        <v>44626</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1440,7 +1679,7 @@
         <v>87</v>
       </c>
       <c r="B102" s="2">
-        <v>44627</v>
+        <v>44688</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1448,7 +1687,7 @@
         <v>88</v>
       </c>
       <c r="B103" s="2">
-        <v>44628</v>
+        <v>44689</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1456,7 +1695,7 @@
         <v>89</v>
       </c>
       <c r="B104" s="2">
-        <v>44629</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1464,7 +1703,7 @@
         <v>90</v>
       </c>
       <c r="B105" s="2">
-        <v>44630</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1472,7 +1711,7 @@
         <v>91</v>
       </c>
       <c r="B106" s="2">
-        <v>44631</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1480,7 +1719,7 @@
         <v>92</v>
       </c>
       <c r="B107" s="2">
-        <v>44632</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1488,7 +1727,7 @@
         <v>93</v>
       </c>
       <c r="B108" s="2">
-        <v>44633</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1496,7 +1735,7 @@
         <v>94</v>
       </c>
       <c r="B109" s="2">
-        <v>44634</v>
+        <v>44695</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1504,7 +1743,7 @@
         <v>95</v>
       </c>
       <c r="B110" s="2">
-        <v>44635</v>
+        <v>44696</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1512,7 +1751,7 @@
         <v>96</v>
       </c>
       <c r="B111" s="2">
-        <v>44636</v>
+        <v>44697</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1520,7 +1759,7 @@
         <v>97</v>
       </c>
       <c r="B112" s="2">
-        <v>44637</v>
+        <v>44698</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1528,7 +1767,7 @@
         <v>98</v>
       </c>
       <c r="B113" s="2">
-        <v>44638</v>
+        <v>44699</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1536,7 +1775,7 @@
         <v>99</v>
       </c>
       <c r="B114" s="2">
-        <v>44639</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1544,7 +1783,7 @@
         <v>100</v>
       </c>
       <c r="B115" s="2">
-        <v>44640</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1552,7 +1791,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="2">
-        <v>44641</v>
+        <v>44702</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1560,7 +1799,7 @@
         <v>102</v>
       </c>
       <c r="B117" s="2">
-        <v>44642</v>
+        <v>44703</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1568,7 +1807,7 @@
         <v>103</v>
       </c>
       <c r="B118" s="2">
-        <v>44643</v>
+        <v>44704</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1576,7 +1815,7 @@
         <v>104</v>
       </c>
       <c r="B119" s="2">
-        <v>44644</v>
+        <v>44705</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1584,7 +1823,7 @@
         <v>105</v>
       </c>
       <c r="B120" s="2">
-        <v>44645</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1592,7 +1831,7 @@
         <v>106</v>
       </c>
       <c r="B121" s="2">
-        <v>44646</v>
+        <v>44707</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -1600,7 +1839,7 @@
         <v>107</v>
       </c>
       <c r="B122" s="2">
-        <v>44647</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -1608,7 +1847,7 @@
         <v>108</v>
       </c>
       <c r="B123" s="2">
-        <v>44648</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -1616,7 +1855,7 @@
         <v>109</v>
       </c>
       <c r="B124" s="2">
-        <v>44649</v>
+        <v>44710</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -1624,7 +1863,769 @@
         <v>110</v>
       </c>
       <c r="B125" s="2">
-        <v>44650</v>
+        <v>44711</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>111</v>
+      </c>
+      <c r="B126" s="2">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>112</v>
+      </c>
+      <c r="B129" s="2">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>113</v>
+      </c>
+      <c r="B130" s="2">
+        <v>44714</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>114</v>
+      </c>
+      <c r="B131" s="2">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>115</v>
+      </c>
+      <c r="B132" s="2">
+        <v>44716</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>116</v>
+      </c>
+      <c r="B133" s="2">
+        <v>44717</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>117</v>
+      </c>
+      <c r="B134" s="2">
+        <v>44718</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>118</v>
+      </c>
+      <c r="B135" s="2">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>119</v>
+      </c>
+      <c r="B136" s="2">
+        <v>44720</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>120</v>
+      </c>
+      <c r="B137" s="2">
+        <v>44721</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>121</v>
+      </c>
+      <c r="B138" s="2">
+        <v>44722</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>122</v>
+      </c>
+      <c r="B139" s="2">
+        <v>44723</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>123</v>
+      </c>
+      <c r="B140" s="2">
+        <v>44724</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>124</v>
+      </c>
+      <c r="B141" s="2">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>125</v>
+      </c>
+      <c r="B142" s="2">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>126</v>
+      </c>
+      <c r="B143" s="2">
+        <v>44727</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>127</v>
+      </c>
+      <c r="B144" s="2">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>128</v>
+      </c>
+      <c r="B145" s="2">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>129</v>
+      </c>
+      <c r="B146" s="2">
+        <v>44730</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>130</v>
+      </c>
+      <c r="B147" s="2">
+        <v>44731</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>131</v>
+      </c>
+      <c r="B148" s="2">
+        <v>44732</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>132</v>
+      </c>
+      <c r="B149" s="2">
+        <v>44733</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>133</v>
+      </c>
+      <c r="B150" s="2">
+        <v>44734</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>134</v>
+      </c>
+      <c r="B151" s="2">
+        <v>44735</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>135</v>
+      </c>
+      <c r="B152" s="2">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>136</v>
+      </c>
+      <c r="B153" s="2">
+        <v>44737</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>137</v>
+      </c>
+      <c r="B154" s="2">
+        <v>44738</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>138</v>
+      </c>
+      <c r="B155" s="2">
+        <v>44739</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>139</v>
+      </c>
+      <c r="B156" s="2">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>140</v>
+      </c>
+      <c r="B157" s="2">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>141</v>
+      </c>
+      <c r="B158" s="2">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>142</v>
+      </c>
+      <c r="B161" s="2">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>143</v>
+      </c>
+      <c r="B162" s="2">
+        <v>44744</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>144</v>
+      </c>
+      <c r="B163" s="2">
+        <v>44745</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>145</v>
+      </c>
+      <c r="B164" s="2">
+        <v>44746</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>146</v>
+      </c>
+      <c r="B165" s="2">
+        <v>44747</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>147</v>
+      </c>
+      <c r="B166" s="2">
+        <v>44748</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>148</v>
+      </c>
+      <c r="B167" s="2">
+        <v>44749</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>149</v>
+      </c>
+      <c r="B168" s="2">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>150</v>
+      </c>
+      <c r="B169" s="2">
+        <v>44751</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>151</v>
+      </c>
+      <c r="B170" s="2">
+        <v>44752</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>152</v>
+      </c>
+      <c r="B171" s="2">
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>153</v>
+      </c>
+      <c r="B172" s="2">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>154</v>
+      </c>
+      <c r="B173" s="2">
+        <v>44755</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>155</v>
+      </c>
+      <c r="B174" s="2">
+        <v>44756</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>156</v>
+      </c>
+      <c r="B175" s="2">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>157</v>
+      </c>
+      <c r="B176" s="2">
+        <v>44758</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>158</v>
+      </c>
+      <c r="B177" s="2">
+        <v>44759</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>159</v>
+      </c>
+      <c r="B178" s="2">
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>160</v>
+      </c>
+      <c r="B179" s="2">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>161</v>
+      </c>
+      <c r="B180" s="2">
+        <v>44762</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>162</v>
+      </c>
+      <c r="B181" s="2">
+        <v>44763</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>163</v>
+      </c>
+      <c r="B182" s="2">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>164</v>
+      </c>
+      <c r="B183" s="2">
+        <v>44765</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>165</v>
+      </c>
+      <c r="B184" s="2">
+        <v>44766</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>166</v>
+      </c>
+      <c r="B185" s="2">
+        <v>44767</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>167</v>
+      </c>
+      <c r="B186" s="2">
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>168</v>
+      </c>
+      <c r="B187" s="2">
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>169</v>
+      </c>
+      <c r="B188" s="2">
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>170</v>
+      </c>
+      <c r="B189" s="2">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>171</v>
+      </c>
+      <c r="B190" s="2">
+        <v>44772</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>172</v>
+      </c>
+      <c r="B191" s="2">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>173</v>
+      </c>
+      <c r="B194" s="11">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>174</v>
+      </c>
+      <c r="B195" s="11">
+        <v>44775</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>175</v>
+      </c>
+      <c r="B196" s="11">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>176</v>
+      </c>
+      <c r="B197" s="11">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>177</v>
+      </c>
+      <c r="B198" s="11">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>178</v>
+      </c>
+      <c r="B199" s="11">
+        <v>44779</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>179</v>
+      </c>
+      <c r="B200" s="11">
+        <v>44780</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>180</v>
+      </c>
+      <c r="B201" s="11">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>181</v>
+      </c>
+      <c r="B202" s="11">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>182</v>
+      </c>
+      <c r="B203" s="11">
+        <v>44783</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>183</v>
+      </c>
+      <c r="B204" s="11">
+        <v>44784</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>184</v>
+      </c>
+      <c r="B205" s="11">
+        <v>44785</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>185</v>
+      </c>
+      <c r="B206" s="11">
+        <v>44786</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>186</v>
+      </c>
+      <c r="B207" s="11">
+        <v>44787</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>187</v>
+      </c>
+      <c r="B208" s="11">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>188</v>
+      </c>
+      <c r="B209" s="11">
+        <v>44789</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>189</v>
+      </c>
+      <c r="B210" s="11">
+        <v>44790</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>190</v>
+      </c>
+      <c r="B211" s="11">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>191</v>
+      </c>
+      <c r="B212" s="11">
+        <v>44792</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>192</v>
+      </c>
+      <c r="B213" s="11">
+        <v>44793</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>193</v>
+      </c>
+      <c r="B214" s="11">
+        <v>44794</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>194</v>
+      </c>
+      <c r="B215" s="11">
+        <v>44795</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>195</v>
+      </c>
+      <c r="B216" s="11">
+        <v>44796</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>196</v>
+      </c>
+      <c r="B217" s="11">
+        <v>44797</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>197</v>
+      </c>
+      <c r="B218" s="11">
+        <v>44798</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>198</v>
+      </c>
+      <c r="B219" s="11">
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>199</v>
+      </c>
+      <c r="B220" s="11">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>200</v>
+      </c>
+      <c r="B221" s="11">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>201</v>
+      </c>
+      <c r="B222" s="11">
+        <v>44802</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>202</v>
+      </c>
+      <c r="B223" s="11">
+        <v>44803</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>203</v>
+      </c>
+      <c r="B224" s="11">
+        <v>44804</v>
       </c>
     </row>
   </sheetData>
@@ -1639,8 +2640,18 @@
     <hyperlink ref="D16" r:id="rId7" xr:uid="{895981B3-46AE-434D-8F15-2A9434992B8C}"/>
     <hyperlink ref="D17" r:id="rId8" xr:uid="{F811B417-77D7-4E92-95D1-85EF4811296D}"/>
     <hyperlink ref="D18" r:id="rId9" xr:uid="{ACEB1045-E135-46B1-99AC-0BAFF0683B9E}"/>
+    <hyperlink ref="D19" r:id="rId10" xr:uid="{064A4FF0-7494-4B5C-A3F9-9B81808ABC2C}"/>
+    <hyperlink ref="D20" r:id="rId11" xr:uid="{8A7C6241-6AD1-4ECF-9287-15B00E5E52F1}"/>
+    <hyperlink ref="D21" r:id="rId12" display="Optimal Binary Search" xr:uid="{30EC9A98-CEC0-4E59-B4FB-D0A08F0609EA}"/>
+    <hyperlink ref="D22" r:id="rId13" xr:uid="{25A9E73A-AED4-48A1-A584-6E2AA660DDCE}"/>
+    <hyperlink ref="D23" r:id="rId14" display="Insertion Sort in List (LinkedList)" xr:uid="{E9A26937-C3B4-42C6-9BEB-44225EF571A7}"/>
+    <hyperlink ref="D24" r:id="rId15" xr:uid="{1B70D5DF-AB3F-4D1F-A1CD-DA09BBD31BE9}"/>
+    <hyperlink ref="D25" r:id="rId16" xr:uid="{CB746237-4A24-42AC-9B57-E7C28E75C08D}"/>
+    <hyperlink ref="D26" r:id="rId17" xr:uid="{85664A9A-ED21-4063-A2A3-E7E7A06B2AD6}"/>
+    <hyperlink ref="D27" r:id="rId18" xr:uid="{E5A95F59-57E6-4938-9F4A-6DCF6939CC75}"/>
+    <hyperlink ref="D28" r:id="rId19" xr:uid="{A9015EA6-76E8-4045-9646-7134D30EE285}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/GFG Problem Of the Day [ INDEX ].xlsx
+++ b/GFG Problem Of the Day [ INDEX ].xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\GFG Problem Of The Day\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0E03A7-8D0C-4A39-B871-5035ED61C3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F4ED3B-0EDC-4099-A443-3B9D9B203CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4692" yWindow="1764" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="145">
   <si>
     <t>Problem Name</t>
   </si>
@@ -199,6 +199,267 @@
   </si>
   <si>
     <t>LeetCode 968 (Binary Tree Cameras)</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Concatenate  Two Numbers</t>
+  </si>
+  <si>
+    <t>Exactly One Swap</t>
+  </si>
+  <si>
+    <t>Matrix Operations</t>
+  </si>
+  <si>
+    <t>Matrix,Map,Backtracking</t>
+  </si>
+  <si>
+    <t>Can Make Triangle</t>
+  </si>
+  <si>
+    <t>Mathametical,Geometry</t>
+  </si>
+  <si>
+    <t>Maximum Winning Score</t>
+  </si>
+  <si>
+    <t>Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Matrix,Prefix-Sum</t>
+  </si>
+  <si>
+    <t>Compute Before Matrix</t>
+  </si>
+  <si>
+    <t>Reverse A String using Stack</t>
+  </si>
+  <si>
+    <t>String,Stack</t>
+  </si>
+  <si>
+    <t>Merge K Sorted Linked List</t>
+  </si>
+  <si>
+    <t>Sorting,Linked List</t>
+  </si>
+  <si>
+    <t>Biconnected Graph</t>
+  </si>
+  <si>
+    <t>Special Matrix</t>
+  </si>
+  <si>
+    <t>Check Mirror in N-ary Tree</t>
+  </si>
+  <si>
+    <t>Height Using Parrent Array</t>
+  </si>
+  <si>
+    <t>7 Segment Display</t>
+  </si>
+  <si>
+    <t>Queue Using Two Stacks</t>
+  </si>
+  <si>
+    <t>Queue,Stack</t>
+  </si>
+  <si>
+    <t>Greedy, Mathametical</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Tree,Stack,Queue,STL</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Number of Distinct Words with K Maximum Contiguous Vowel</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>Bitwise AND of the Array</t>
+  </si>
+  <si>
+    <t>DP, Strings</t>
+  </si>
+  <si>
+    <t>Backtracking, Recurssion</t>
+  </si>
+  <si>
+    <t>Bit Magic , Arrays ,Greedy</t>
+  </si>
+  <si>
+    <t>Coin Piles</t>
+  </si>
+  <si>
+    <t>Rank The Permutations</t>
+  </si>
+  <si>
+    <t>Choose and Swap</t>
+  </si>
+  <si>
+    <t>Minimum times A has to be repeated such tha B is a Substring of it</t>
+  </si>
+  <si>
+    <t>Smaller on Left</t>
+  </si>
+  <si>
+    <t>Arrays, Hash , TreeSet, Map</t>
+  </si>
+  <si>
+    <t>Strings , Pattern Searching</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Number Theory, Strings</t>
+  </si>
+  <si>
+    <t>Greedy, Arrays , Binary Search</t>
+  </si>
+  <si>
+    <t>Swap Kth Node from End</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Advanture in a Maze</t>
+  </si>
+  <si>
+    <t>DP,Matrix</t>
+  </si>
+  <si>
+    <t>Move All Zeros To The Front Of The Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>LinkedList , Deque</t>
+  </si>
+  <si>
+    <t>Maximum Selections</t>
+  </si>
+  <si>
+    <t>Sorting , Matrix</t>
+  </si>
+  <si>
+    <t>LCP</t>
+  </si>
+  <si>
+    <t>String , Prefix</t>
+  </si>
+  <si>
+    <t>Eulerian Path in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>Shop in Candy Store</t>
+  </si>
+  <si>
+    <t>Greedy , Sorting</t>
+  </si>
+  <si>
+    <t>Find length of Loop</t>
+  </si>
+  <si>
+    <t>Help The Old Man!!!</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>Tricky Subset Problem</t>
+  </si>
+  <si>
+    <t>Rat Maze With Multiple Jumps</t>
+  </si>
+  <si>
+    <t>Backtracking,Matrix</t>
+  </si>
+  <si>
+    <t>Bike Racing</t>
+  </si>
+  <si>
+    <t>BinarySearch</t>
+  </si>
+  <si>
+    <t>Villain Con</t>
+  </si>
+  <si>
+    <t>DFS,Graph,Khans Algo,Topological Sort</t>
+  </si>
+  <si>
+    <t>Count pairs in array divisible by K</t>
+  </si>
+  <si>
+    <t>HashMap,Arrays</t>
+  </si>
+  <si>
+    <t>Sorted LinkedList to BST</t>
+  </si>
+  <si>
+    <t>LinkedList,BST</t>
+  </si>
+  <si>
+    <t>Diagonal Traversal of a Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree, Array-DeQueue </t>
+  </si>
+  <si>
+    <t>Complete Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree,Queue</t>
+  </si>
+  <si>
+    <t>X Total Shapes</t>
+  </si>
+  <si>
+    <t>DFS,Matrix</t>
+  </si>
+  <si>
+    <t>Josephus Problem</t>
+  </si>
+  <si>
+    <t>Recusion</t>
+  </si>
+  <si>
+    <t>Friends Pairing Problem</t>
+  </si>
+  <si>
+    <t>Unit Area of largest region of 1's</t>
+  </si>
+  <si>
+    <t>Leetcode 695(Max area of islands)</t>
+  </si>
+  <si>
+    <t>Immediate Smaller Element</t>
+  </si>
+  <si>
+    <t>Matrix,DFS</t>
+  </si>
+  <si>
+    <t>Counting elements in two arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrays , BinarySearch </t>
+  </si>
+  <si>
+    <t>Alternate positive and negative numbers</t>
   </si>
 </sst>
 </file>
@@ -302,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,6 +599,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -345,6 +609,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF9A88F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -354,6 +623,103 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2389406</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2390846</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>103406</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CBCB86-B757-4718-AF98-1B7FA6EE2B25}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5578920" y="6719760"/>
+            <a:ext cx="1440" cy="2160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CBCB86-B757-4718-AF98-1B7FA6EE2B25}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5570280" y="6710760"/>
+              <a:ext cx="19080" cy="19800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-03-06T12:04:45.636"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3 5 80,'0'-2'280,"0"-1"-192,-2 6-396</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -619,20 +985,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:N224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.21875" customWidth="1"/>
+    <col min="4" max="4" width="71.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.5546875" customWidth="1"/>
-    <col min="8" max="8" width="31.21875" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" customWidth="1"/>
     <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="50.44140625" customWidth="1"/>
   </cols>
@@ -1135,6 +1502,21 @@
       <c r="B31" s="2">
         <v>44621</v>
       </c>
+      <c r="D31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
@@ -1143,176 +1525,506 @@
       <c r="B32" s="2">
         <v>44622</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>22</v>
       </c>
       <c r="B33" s="2">
         <v>44623</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>23</v>
       </c>
       <c r="B34" s="2">
         <v>44624</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>24</v>
       </c>
       <c r="B35" s="2">
         <v>44625</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>25</v>
       </c>
       <c r="B36" s="2">
         <v>44626</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>26</v>
       </c>
       <c r="B37" s="2">
         <v>44627</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>27</v>
       </c>
       <c r="B38" s="2">
         <v>44628</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>28</v>
       </c>
       <c r="B39" s="2">
         <v>44629</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>29</v>
       </c>
       <c r="B40" s="2">
         <v>44630</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>30</v>
       </c>
       <c r="B41" s="2">
         <v>44631</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>31</v>
       </c>
       <c r="B42" s="2">
         <v>44632</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>32</v>
       </c>
       <c r="B43" s="2">
         <v>44633</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>33</v>
       </c>
       <c r="B44" s="2">
         <v>44634</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>34</v>
       </c>
       <c r="B45" s="2">
         <v>44635</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>35</v>
       </c>
       <c r="B46" s="2">
         <v>44636</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>36</v>
       </c>
       <c r="B47" s="2">
         <v>44637</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>37</v>
       </c>
       <c r="B48" s="2">
         <v>44638</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>38</v>
       </c>
       <c r="B49" s="2">
         <v>44639</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>39</v>
       </c>
       <c r="B50" s="2">
         <v>44640</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>40</v>
       </c>
       <c r="B51" s="2">
         <v>44641</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D51" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>41</v>
       </c>
       <c r="B52" s="2">
         <v>44642</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>42</v>
       </c>
       <c r="B53" s="2">
         <v>44643</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>43</v>
       </c>
@@ -1320,7 +2032,7 @@
         <v>44644</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>44</v>
       </c>
@@ -1328,7 +2040,7 @@
         <v>44645</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>45</v>
       </c>
@@ -1336,7 +2048,7 @@
         <v>44646</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>46</v>
       </c>
@@ -1344,7 +2056,7 @@
         <v>44647</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>47</v>
       </c>
@@ -1352,15 +2064,30 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>48</v>
       </c>
       <c r="B59" s="2">
         <v>44649</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D59" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>49</v>
       </c>
@@ -1368,7 +2095,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>50</v>
       </c>
@@ -1376,12 +2103,12 @@
         <v>44651</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>51</v>
       </c>
@@ -1389,15 +2116,33 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>52</v>
       </c>
       <c r="B65" s="2">
         <v>44653</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D65" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>106</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>53</v>
       </c>
@@ -1405,7 +2150,7 @@
         <v>44654</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>54</v>
       </c>
@@ -1413,7 +2158,7 @@
         <v>44655</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>55</v>
       </c>
@@ -1421,23 +2166,53 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>56</v>
       </c>
       <c r="B69" s="2">
         <v>44657</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D69" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>57</v>
       </c>
       <c r="B70" s="2">
         <v>44658</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D70" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>58</v>
       </c>
@@ -1445,7 +2220,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>59</v>
       </c>
@@ -1453,7 +2228,7 @@
         <v>44660</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>60</v>
       </c>
@@ -1461,7 +2236,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>61</v>
       </c>
@@ -1469,7 +2244,7 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>62</v>
       </c>
@@ -1477,7 +2252,7 @@
         <v>44663</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>63</v>
       </c>
@@ -1485,7 +2260,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>64</v>
       </c>
@@ -1493,7 +2268,7 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>65</v>
       </c>
@@ -1501,7 +2276,7 @@
         <v>44666</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>66</v>
       </c>
@@ -1509,7 +2284,7 @@
         <v>44667</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>67</v>
       </c>
@@ -1517,7 +2292,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>68</v>
       </c>
@@ -1525,7 +2300,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>69</v>
       </c>
@@ -1533,7 +2308,7 @@
         <v>44670</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>70</v>
       </c>
@@ -1541,7 +2316,7 @@
         <v>44671</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>71</v>
       </c>
@@ -1549,7 +2324,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>72</v>
       </c>
@@ -1557,7 +2332,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>73</v>
       </c>
@@ -1565,7 +2340,7 @@
         <v>44674</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>74</v>
       </c>
@@ -1573,7 +2348,7 @@
         <v>44675</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>75</v>
       </c>
@@ -1581,15 +2356,30 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>76</v>
       </c>
       <c r="B89" s="2">
         <v>44677</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D89" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>77</v>
       </c>
@@ -1597,23 +2387,53 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>78</v>
       </c>
       <c r="B91" s="2">
         <v>44679</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D91" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>79</v>
       </c>
       <c r="B92" s="2">
         <v>44680</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D92" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>80</v>
       </c>
@@ -1621,12 +2441,12 @@
         <v>44681</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B95" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>81</v>
       </c>
@@ -1879,63 +2699,168 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>112</v>
       </c>
       <c r="B129" s="2">
         <v>44713</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D129" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>113</v>
       </c>
       <c r="B130" s="2">
         <v>44714</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D130" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>114</v>
       </c>
       <c r="B131" s="2">
         <v>44715</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D131" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>115</v>
       </c>
       <c r="B132" s="2">
         <v>44716</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D132" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>116</v>
       </c>
       <c r="B133" s="2">
         <v>44717</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D133" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>117</v>
       </c>
       <c r="B134" s="2">
         <v>44718</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D134" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>118</v>
       </c>
       <c r="B135" s="2">
         <v>44719</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D135" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>119</v>
       </c>
@@ -1943,7 +2868,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>120</v>
       </c>
@@ -1951,7 +2876,7 @@
         <v>44721</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>121</v>
       </c>
@@ -1959,7 +2884,7 @@
         <v>44722</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>122</v>
       </c>
@@ -1967,7 +2892,7 @@
         <v>44723</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>123</v>
       </c>
@@ -1975,7 +2900,7 @@
         <v>44724</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>124</v>
       </c>
@@ -1983,7 +2908,7 @@
         <v>44725</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>125</v>
       </c>
@@ -1991,7 +2916,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>126</v>
       </c>
@@ -1999,7 +2924,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>127</v>
       </c>
@@ -2127,7 +3052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>142</v>
       </c>
@@ -2135,7 +3060,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>143</v>
       </c>
@@ -2143,7 +3068,7 @@
         <v>44744</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>144</v>
       </c>
@@ -2151,7 +3076,7 @@
         <v>44745</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>145</v>
       </c>
@@ -2159,7 +3084,7 @@
         <v>44746</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>146</v>
       </c>
@@ -2167,15 +3092,30 @@
         <v>44747</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>147</v>
       </c>
       <c r="B166" s="2">
         <v>44748</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D166" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>148</v>
       </c>
@@ -2183,15 +3123,30 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>149</v>
       </c>
       <c r="B168" s="2">
         <v>44750</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D168" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>150</v>
       </c>
@@ -2199,7 +3154,7 @@
         <v>44751</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>151</v>
       </c>
@@ -2207,7 +3162,7 @@
         <v>44752</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>152</v>
       </c>
@@ -2215,7 +3170,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>153</v>
       </c>
@@ -2223,7 +3178,7 @@
         <v>44754</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>154</v>
       </c>
@@ -2231,7 +3186,7 @@
         <v>44755</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>155</v>
       </c>
@@ -2239,7 +3194,7 @@
         <v>44756</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>156</v>
       </c>
@@ -2247,7 +3202,7 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>157</v>
       </c>
@@ -2375,12 +3330,12 @@
         <v>44773</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B193" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>173</v>
       </c>
@@ -2388,7 +3343,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>174</v>
       </c>
@@ -2396,7 +3351,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>175</v>
       </c>
@@ -2404,23 +3359,53 @@
         <v>44776</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>176</v>
       </c>
       <c r="B197" s="11">
         <v>44777</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D197" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>177</v>
       </c>
       <c r="B198" s="11">
         <v>44778</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D198" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>178</v>
       </c>
@@ -2428,7 +3413,7 @@
         <v>44779</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>179</v>
       </c>
@@ -2436,7 +3421,7 @@
         <v>44780</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>180</v>
       </c>
@@ -2444,7 +3429,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>181</v>
       </c>
@@ -2452,7 +3437,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>182</v>
       </c>
@@ -2460,7 +3445,7 @@
         <v>44783</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>183</v>
       </c>
@@ -2468,7 +3453,7 @@
         <v>44784</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>184</v>
       </c>
@@ -2476,7 +3461,7 @@
         <v>44785</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>185</v>
       </c>
@@ -2484,15 +3469,30 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>186</v>
       </c>
       <c r="B207" s="11">
         <v>44787</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D207" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>187</v>
       </c>
@@ -2500,7 +3500,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>188</v>
       </c>
@@ -2508,7 +3508,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>189</v>
       </c>
@@ -2516,7 +3516,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>190</v>
       </c>
@@ -2524,15 +3524,33 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>191</v>
       </c>
       <c r="B212" s="11">
         <v>44792</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D212" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N212" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>192</v>
       </c>
@@ -2540,7 +3558,7 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>193</v>
       </c>
@@ -2548,15 +3566,30 @@
         <v>44794</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>194</v>
       </c>
       <c r="B215" s="11">
         <v>44795</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D215" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>195</v>
       </c>
@@ -2564,7 +3597,7 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>196</v>
       </c>
@@ -2572,15 +3605,30 @@
         <v>44797</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>197</v>
       </c>
       <c r="B218" s="11">
         <v>44798</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D218" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>198</v>
       </c>
@@ -2588,15 +3636,30 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>199</v>
       </c>
       <c r="B220" s="11">
         <v>44800</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D220" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>200</v>
       </c>
@@ -2604,7 +3667,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>201</v>
       </c>
@@ -2612,7 +3675,7 @@
         <v>44802</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>202</v>
       </c>
@@ -2620,7 +3683,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>203</v>
       </c>
@@ -2650,8 +3713,55 @@
     <hyperlink ref="D26" r:id="rId17" xr:uid="{85664A9A-ED21-4063-A2A3-E7E7A06B2AD6}"/>
     <hyperlink ref="D27" r:id="rId18" xr:uid="{E5A95F59-57E6-4938-9F4A-6DCF6939CC75}"/>
     <hyperlink ref="D28" r:id="rId19" xr:uid="{A9015EA6-76E8-4045-9646-7134D30EE285}"/>
+    <hyperlink ref="D31" r:id="rId20" display="Concatinate Two Numbers" xr:uid="{D10875AE-598E-4587-A28D-56F45A53C815}"/>
+    <hyperlink ref="D32" r:id="rId21" xr:uid="{96C724DF-0492-4A21-B13D-5C29007930BC}"/>
+    <hyperlink ref="D33" r:id="rId22" xr:uid="{D642FF79-6244-439F-9DCE-E4571CDDD42E}"/>
+    <hyperlink ref="D34" r:id="rId23" xr:uid="{C9D04F8C-AC6E-4F44-8C52-D5BB9226B275}"/>
+    <hyperlink ref="D36" r:id="rId24" xr:uid="{C271C719-2825-4162-BF10-E2AA4A7B32FE}"/>
+    <hyperlink ref="D35" r:id="rId25" xr:uid="{A7AF728C-7F49-495B-A973-DC4F5D6F38D1}"/>
+    <hyperlink ref="D38" r:id="rId26" xr:uid="{61D4AEE4-930F-46D3-A1CC-D0929D08EE1A}"/>
+    <hyperlink ref="D37" r:id="rId27" xr:uid="{0C33BD96-C330-4743-973C-47E7CE9E3B78}"/>
+    <hyperlink ref="D44" r:id="rId28" xr:uid="{3E4E969C-1303-4AEA-B525-00F6AFFD4A2D}"/>
+    <hyperlink ref="D43" r:id="rId29" xr:uid="{6FC2F9E3-0964-4FD6-B627-54D9A1702C68}"/>
+    <hyperlink ref="D41" r:id="rId30" xr:uid="{10514BEC-A6C0-4F37-9D79-65D68E2040BB}"/>
+    <hyperlink ref="D42" r:id="rId31" xr:uid="{F99D42EA-6DCD-4B6A-873F-E0686041C282}"/>
+    <hyperlink ref="D39" r:id="rId32" xr:uid="{7380A2D4-7223-48E8-8620-E0806017F0FA}"/>
+    <hyperlink ref="D40" r:id="rId33" xr:uid="{CD180223-90D7-4378-B93D-67543E89375D}"/>
+    <hyperlink ref="D47" r:id="rId34" xr:uid="{9DB59984-789C-4477-82A4-0B77633074F3}"/>
+    <hyperlink ref="D46" r:id="rId35" xr:uid="{B93E43D0-9F79-4871-A931-507679857422}"/>
+    <hyperlink ref="D45" r:id="rId36" xr:uid="{B4470518-466B-47F5-9498-2686DE49CCE4}"/>
+    <hyperlink ref="D52" r:id="rId37" xr:uid="{9DF56E57-CF2A-4CCE-8903-0510ECCBA759}"/>
+    <hyperlink ref="D51" r:id="rId38" xr:uid="{AAAA6974-02FF-4D83-BCD7-1F2749B59C9E}"/>
+    <hyperlink ref="D50" r:id="rId39" xr:uid="{78D616EE-271E-401B-8788-36B3259DBB77}"/>
+    <hyperlink ref="D49" r:id="rId40" xr:uid="{DE872256-96D5-47B6-A9C4-A95577FC4BC0}"/>
+    <hyperlink ref="D48" r:id="rId41" xr:uid="{09700EAF-1AB1-4200-80C6-FFD43DC17CF7}"/>
+    <hyperlink ref="D53" r:id="rId42" xr:uid="{59E0B599-F2E4-4896-8696-3F82BC47C4A4}"/>
+    <hyperlink ref="D59" r:id="rId43" xr:uid="{A3E86A1C-367B-4E52-B0A7-874AB31905D1}"/>
+    <hyperlink ref="D65" r:id="rId44" xr:uid="{014A570F-63CB-47CE-8C98-BB2F4A6A9B17}"/>
+    <hyperlink ref="D69" r:id="rId45" xr:uid="{9901714A-5CEA-4F11-8C6A-3876B9A9B803}"/>
+    <hyperlink ref="D70" r:id="rId46" xr:uid="{1FB4E939-6AC9-4BC1-A073-9C65F21FCD6F}"/>
+    <hyperlink ref="D89" r:id="rId47" xr:uid="{D9197843-983A-425D-B499-4DA321216079}"/>
+    <hyperlink ref="D91" r:id="rId48" xr:uid="{FBB140E8-F6F8-4344-9D41-C324232D01BB}"/>
+    <hyperlink ref="D92" r:id="rId49" xr:uid="{37BA7A83-965C-4A8C-8EF3-ACAA65DA0513}"/>
+    <hyperlink ref="D129" r:id="rId50" xr:uid="{E36E98F8-294C-47BF-9FBD-5FA4AE861CD0}"/>
+    <hyperlink ref="D131" r:id="rId51" display="https://practice.geeksforgeeks.org/problems/tricky-subset-problem1557/1" xr:uid="{73D3D4F2-AF5F-4B61-8F8E-E7A0990C5F0A}"/>
+    <hyperlink ref="D130" r:id="rId52" display="https://practice.geeksforgeeks.org/problems/rat-maze-with-multiple-jumps3852/1" xr:uid="{1DABABC8-FE84-4A52-8F7D-C9BD7E4BF5ED}"/>
+    <hyperlink ref="D133" r:id="rId53" xr:uid="{4DC2A572-B05D-4E5F-8E4C-0C72F66C8716}"/>
+    <hyperlink ref="D132" r:id="rId54" display="https://practice.geeksforgeeks.org/problems/villain-con0511/1" xr:uid="{5EDC0BFC-FAB5-4EE1-A51E-4BB7EF9B7D6D}"/>
+    <hyperlink ref="D134" r:id="rId55" xr:uid="{11240EC9-23E0-40FF-85CC-227CF7630054}"/>
+    <hyperlink ref="D135" r:id="rId56" xr:uid="{8BBFA1FE-B98A-4868-8270-DEAE71AFE704}"/>
+    <hyperlink ref="D166" r:id="rId57" xr:uid="{2A185E3F-B518-4556-94FC-1A447570E0F9}"/>
+    <hyperlink ref="D197" r:id="rId58" xr:uid="{537CB6D3-FCFA-4DDC-99F9-E7ED3FE78141}"/>
+    <hyperlink ref="D198" r:id="rId59" xr:uid="{FC87CC86-0E9A-4FD7-A2F3-1986CBF40995}"/>
+    <hyperlink ref="D168" r:id="rId60" xr:uid="{9EA8DC07-CF40-48E6-B810-228256D09D86}"/>
+    <hyperlink ref="D207" r:id="rId61" xr:uid="{855204A4-F1E7-4659-A0C9-6419FC860F95}"/>
+    <hyperlink ref="D212" r:id="rId62" xr:uid="{B8606CDD-77D8-4A9C-86BA-569C9D9FAD87}"/>
+    <hyperlink ref="D215" r:id="rId63" xr:uid="{4B0C787A-1AC2-42A6-8E83-11151667236D}"/>
+    <hyperlink ref="D218" r:id="rId64" xr:uid="{CEA2AA4F-0327-47FF-A204-33903030DF7B}"/>
+    <hyperlink ref="D220" r:id="rId65" xr:uid="{D9B52B09-986E-4232-8291-4D59BF17564B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId66"/>
+  <drawing r:id="rId67"/>
 </worksheet>
 </file>